--- a/table/Describe_daily.xlsx
+++ b/table/Describe_daily.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Swatch_close</t>
   </si>
@@ -65,6 +65,12 @@
   </si>
   <si>
     <t>max</t>
+  </si>
+  <si>
+    <t>Kurtosis</t>
+  </si>
+  <si>
+    <t>Skewness</t>
   </si>
 </sst>
 </file>
@@ -422,7 +428,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -462,31 +468,31 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>5461</v>
+        <v>5459</v>
       </c>
       <c r="C2">
-        <v>5461</v>
+        <v>5459</v>
       </c>
       <c r="D2">
-        <v>5461</v>
+        <v>5459</v>
       </c>
       <c r="E2">
-        <v>5460</v>
+        <v>5459</v>
       </c>
       <c r="F2">
-        <v>5460</v>
+        <v>5459</v>
       </c>
       <c r="G2">
-        <v>5460</v>
+        <v>5459</v>
       </c>
       <c r="H2">
-        <v>5460</v>
+        <v>5459</v>
       </c>
       <c r="I2">
-        <v>5460</v>
+        <v>5459</v>
       </c>
       <c r="J2">
-        <v>5460</v>
+        <v>5459</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -494,31 +500,31 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>234.6512716195889</v>
+        <v>234.6959713266585</v>
       </c>
       <c r="C3">
-        <v>35.41503432473296</v>
+        <v>35.4265508717245</v>
       </c>
       <c r="D3">
-        <v>7348.138884363627</v>
+        <v>7347.876286355889</v>
       </c>
       <c r="E3">
-        <v>9.618216165665986e-05</v>
+        <v>9.413027938415426e-05</v>
       </c>
       <c r="F3">
-        <v>0.0004012887419740507</v>
+        <v>0.0003987899600395894</v>
       </c>
       <c r="G3">
-        <v>0.002203864851918636</v>
+        <v>0.000531153339920551</v>
       </c>
       <c r="H3">
-        <v>2.408083072750079e-05</v>
+        <v>2.202734335851489e-05</v>
       </c>
       <c r="I3">
-        <v>0.0001794588317434623</v>
+        <v>0.0001769373071069505</v>
       </c>
       <c r="J3">
-        <v>0.0005851304397908707</v>
+        <v>0.0001610115187471703</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -526,31 +532,31 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>120.3925536423828</v>
+        <v>120.3895583422905</v>
       </c>
       <c r="C4">
-        <v>28.65874516296474</v>
+        <v>28.65767640676423</v>
       </c>
       <c r="D4">
-        <v>1435.629902376943</v>
+        <v>1435.820969143704</v>
       </c>
       <c r="E4">
-        <v>0.01200026440974449</v>
+        <v>0.01200040575728094</v>
       </c>
       <c r="F4">
-        <v>0.02105260120471181</v>
+        <v>0.02105371994662211</v>
       </c>
       <c r="G4">
-        <v>0.1251580302354248</v>
+        <v>0.01969063725942798</v>
       </c>
       <c r="H4">
-        <v>0.01201543074349516</v>
+        <v>0.01201557319212173</v>
       </c>
       <c r="I4">
-        <v>0.0210739978170626</v>
+        <v>0.02107510454859245</v>
       </c>
       <c r="J4">
-        <v>0.04662587217487797</v>
+        <v>0.03452626060545787</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -590,31 +596,31 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>125.3132629394531</v>
+        <v>125.3211097717285</v>
       </c>
       <c r="C6">
-        <v>5.868556976318359</v>
+        <v>5.873297214508057</v>
       </c>
       <c r="D6">
-        <v>6236.7998046875</v>
+        <v>6236.75</v>
       </c>
       <c r="E6">
-        <v>-0.005489579320830218</v>
+        <v>-0.005492372670918511</v>
       </c>
       <c r="F6">
-        <v>-0.01051648363629118</v>
+        <v>-0.01052523971632274</v>
       </c>
       <c r="G6">
-        <v>-0.005663539087312708</v>
+        <v>-0.005663658006381578</v>
       </c>
       <c r="H6">
-        <v>-0.005504702444966997</v>
+        <v>-0.005507511221905013</v>
       </c>
       <c r="I6">
-        <v>-0.01057217274681168</v>
+        <v>-0.01058102196700803</v>
       </c>
       <c r="J6">
-        <v>-0.005679637737160425</v>
+        <v>-0.005679757333582528</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -622,16 +628,16 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>234.4182281494141</v>
+        <v>234.6518249511719</v>
       </c>
       <c r="C7">
-        <v>31.9870491027832</v>
+        <v>32.02828216552734</v>
       </c>
       <c r="D7">
-        <v>7373.39990234375</v>
+        <v>7373.2998046875</v>
       </c>
       <c r="E7">
-        <v>0.0004928425969971117</v>
+        <v>0.000492009615779665</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -640,7 +646,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.0004927211896258815</v>
+        <v>0.0004918886187348346</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -654,31 +660,31 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>325.8489074707031</v>
+        <v>325.854736328125</v>
       </c>
       <c r="C8">
         <v>59.19004058837891</v>
       </c>
       <c r="D8">
-        <v>8554.509765625</v>
+        <v>8554.5146484375</v>
       </c>
       <c r="E8">
-        <v>0.00599654606294886</v>
+        <v>0.005995179764885505</v>
       </c>
       <c r="F8">
-        <v>0.01117753646322511</v>
+        <v>0.01117016569701113</v>
       </c>
       <c r="G8">
-        <v>0.00658980346208049</v>
+        <v>0.006588661493161507</v>
       </c>
       <c r="H8">
-        <v>0.005978638334226564</v>
+        <v>0.00597728017951559</v>
       </c>
       <c r="I8">
-        <v>0.01111552943141283</v>
+        <v>0.01110824009297478</v>
       </c>
       <c r="J8">
-        <v>0.006568185626673441</v>
+        <v>0.006567051132963736</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -701,7 +707,7 @@
         <v>0.1323529511380441</v>
       </c>
       <c r="G9">
-        <v>9.133536008849457</v>
+        <v>0.3060748778276843</v>
       </c>
       <c r="H9">
         <v>0.107875971334747</v>
@@ -710,7 +716,71 @@
         <v>0.1242977254748109</v>
       </c>
       <c r="J9">
-        <v>2.315850320417353</v>
+        <v>0.2670263629225811</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10">
+        <v>-0.8935794267231296</v>
+      </c>
+      <c r="C10">
+        <v>-0.735165050789504</v>
+      </c>
+      <c r="D10">
+        <v>-0.8135548123339</v>
+      </c>
+      <c r="E10">
+        <v>7.248080497542542</v>
+      </c>
+      <c r="F10">
+        <v>3.590791247910337</v>
+      </c>
+      <c r="G10">
+        <v>842.6177081156394</v>
+      </c>
+      <c r="H10">
+        <v>7.199896650163796</v>
+      </c>
+      <c r="I10">
+        <v>3.813333249458946</v>
+      </c>
+      <c r="J10">
+        <v>3625.928092512082</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11">
+        <v>0.3581075308251764</v>
+      </c>
+      <c r="C11">
+        <v>0.5461741821855581</v>
+      </c>
+      <c r="D11">
+        <v>-0.01311198488994744</v>
+      </c>
+      <c r="E11">
+        <v>-0.1170212365821217</v>
+      </c>
+      <c r="F11">
+        <v>-0.01090062811071068</v>
+      </c>
+      <c r="G11">
+        <v>-14.45725541496751</v>
+      </c>
+      <c r="H11">
+        <v>-0.2820263236104321</v>
+      </c>
+      <c r="I11">
+        <v>-0.1905915594271094</v>
+      </c>
+      <c r="J11">
+        <v>-53.96993984320746</v>
       </c>
     </row>
   </sheetData>

--- a/table/Describe_daily.xlsx
+++ b/table/Describe_daily.xlsx
@@ -468,31 +468,31 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>5459</v>
+        <v>5458</v>
       </c>
       <c r="C2">
-        <v>5459</v>
+        <v>5458</v>
       </c>
       <c r="D2">
-        <v>5459</v>
+        <v>5458</v>
       </c>
       <c r="E2">
-        <v>5459</v>
+        <v>5458</v>
       </c>
       <c r="F2">
-        <v>5459</v>
+        <v>5458</v>
       </c>
       <c r="G2">
-        <v>5459</v>
+        <v>5458</v>
       </c>
       <c r="H2">
-        <v>5459</v>
+        <v>5458</v>
       </c>
       <c r="I2">
-        <v>5459</v>
+        <v>5458</v>
       </c>
       <c r="J2">
-        <v>5459</v>
+        <v>5458</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -500,31 +500,31 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>234.6959713266585</v>
+        <v>234.7114574073129</v>
       </c>
       <c r="C3">
-        <v>35.4265508717245</v>
+        <v>35.4329714955057</v>
       </c>
       <c r="D3">
-        <v>7347.876286355889</v>
+        <v>7347.80187746735</v>
       </c>
       <c r="E3">
-        <v>9.413027938415426e-05</v>
+        <v>9.414752567938771e-05</v>
       </c>
       <c r="F3">
-        <v>0.0003987899600395894</v>
+        <v>0.0003988630252576253</v>
       </c>
       <c r="G3">
-        <v>0.000531153339920551</v>
+        <v>0.0006961462145523515</v>
       </c>
       <c r="H3">
-        <v>2.202734335851489e-05</v>
+        <v>2.203137914879677e-05</v>
       </c>
       <c r="I3">
-        <v>0.0001769373071069505</v>
+        <v>0.0001769697250818693</v>
       </c>
       <c r="J3">
-        <v>0.0001610115187471703</v>
+        <v>0.0005829143528471015</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -532,31 +532,31 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>120.3895583422905</v>
+        <v>120.3951507366286</v>
       </c>
       <c r="C4">
-        <v>28.65767640676423</v>
+        <v>28.65637501142295</v>
       </c>
       <c r="D4">
-        <v>1435.820969143704</v>
+        <v>1435.941994584991</v>
       </c>
       <c r="E4">
-        <v>0.01200040575728094</v>
+        <v>0.01200150518165497</v>
       </c>
       <c r="F4">
-        <v>0.02105371994662211</v>
+        <v>0.02105564822233381</v>
       </c>
       <c r="G4">
-        <v>0.01969063725942798</v>
+        <v>0.0154646879749652</v>
       </c>
       <c r="H4">
-        <v>0.01201557319212173</v>
+        <v>0.01201667407011252</v>
       </c>
       <c r="I4">
-        <v>0.02107510454859245</v>
+        <v>0.02107703533964108</v>
       </c>
       <c r="J4">
-        <v>0.03452626060545787</v>
+        <v>0.01484554225747269</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -567,7 +567,7 @@
         <v>39.69287872314453</v>
       </c>
       <c r="C5">
-        <v>0.3827862739562988</v>
+        <v>2.785304546356201</v>
       </c>
       <c r="D5">
         <v>3675.39990234375</v>
@@ -579,7 +579,7 @@
         <v>-0.1634574605333516</v>
       </c>
       <c r="G5">
-        <v>-0.8999999564004538</v>
+        <v>-0.07667211897011783</v>
       </c>
       <c r="H5">
         <v>-0.1013393020842617</v>
@@ -588,7 +588,7 @@
         <v>-0.1784779057339415</v>
       </c>
       <c r="J5">
-        <v>-2.302584656998679</v>
+        <v>-0.07977087350808554</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -596,31 +596,31 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>125.3211097717285</v>
+        <v>125.3171863555908</v>
       </c>
       <c r="C6">
-        <v>5.873297214508057</v>
+        <v>5.878037452697754</v>
       </c>
       <c r="D6">
-        <v>6236.75</v>
+        <v>6236.72509765625</v>
       </c>
       <c r="E6">
-        <v>-0.005492372670918511</v>
+        <v>-0.005495166021006803</v>
       </c>
       <c r="F6">
-        <v>-0.01052523971632274</v>
+        <v>-0.01053399579635431</v>
       </c>
       <c r="G6">
-        <v>-0.005663658006381578</v>
+        <v>-0.005660927378979996</v>
       </c>
       <c r="H6">
-        <v>-0.005507511221905013</v>
+        <v>-0.005510319998843029</v>
       </c>
       <c r="I6">
-        <v>-0.01058102196700803</v>
+        <v>-0.01058987118720438</v>
       </c>
       <c r="J6">
-        <v>-0.005679757333582528</v>
+        <v>-0.00567701116592144</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -628,16 +628,16 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>234.6518249511719</v>
+        <v>234.6944885253906</v>
       </c>
       <c r="C7">
-        <v>32.02828216552734</v>
+        <v>32.03687477111816</v>
       </c>
       <c r="D7">
-        <v>7373.2998046875</v>
+        <v>7372.699951171875</v>
       </c>
       <c r="E7">
-        <v>0.000492009615779665</v>
+        <v>0.0004928425969971117</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -646,7 +646,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.0004918886187348346</v>
+        <v>0.0004927211896258815</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -660,31 +660,31 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>325.854736328125</v>
+        <v>325.8576507568359</v>
       </c>
       <c r="C8">
         <v>59.19004058837891</v>
       </c>
       <c r="D8">
-        <v>8554.5146484375</v>
+        <v>8554.51708984375</v>
       </c>
       <c r="E8">
-        <v>0.005995179764885505</v>
+        <v>0.005995603811000449</v>
       </c>
       <c r="F8">
-        <v>0.01117016569701113</v>
+        <v>0.01117355531549502</v>
       </c>
       <c r="G8">
-        <v>0.006588661493161507</v>
+        <v>0.006589086979154446</v>
       </c>
       <c r="H8">
-        <v>0.00597728017951559</v>
+        <v>0.005977701698548159</v>
       </c>
       <c r="I8">
-        <v>0.01110824009297478</v>
+        <v>0.0111115922671181</v>
       </c>
       <c r="J8">
-        <v>0.006567051132963736</v>
+        <v>0.00656747383392314</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -724,31 +724,31 @@
         <v>17</v>
       </c>
       <c r="B10">
-        <v>-0.8935794267231296</v>
+        <v>-0.8938135039883903</v>
       </c>
       <c r="C10">
-        <v>-0.735165050789504</v>
+        <v>-0.7352380186844831</v>
       </c>
       <c r="D10">
-        <v>-0.8135548123339</v>
+        <v>-0.8138951084925199</v>
       </c>
       <c r="E10">
-        <v>7.248080497542542</v>
+        <v>7.246204119602876</v>
       </c>
       <c r="F10">
-        <v>3.590791247910337</v>
+        <v>3.589584940010535</v>
       </c>
       <c r="G10">
-        <v>842.6177081156394</v>
+        <v>112.2288688842685</v>
       </c>
       <c r="H10">
-        <v>7.199896650163796</v>
+        <v>7.198028586451331</v>
       </c>
       <c r="I10">
-        <v>3.813333249458946</v>
+        <v>3.812086506201679</v>
       </c>
       <c r="J10">
-        <v>3625.928092512082</v>
+        <v>81.15853222584742</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -756,31 +756,31 @@
         <v>18</v>
       </c>
       <c r="B11">
-        <v>0.3581075308251764</v>
+        <v>0.3578007480244293</v>
       </c>
       <c r="C11">
-        <v>0.5461741821855581</v>
+        <v>0.5460116398385354</v>
       </c>
       <c r="D11">
-        <v>-0.01311198488994744</v>
+        <v>-0.01295974756637836</v>
       </c>
       <c r="E11">
-        <v>-0.1170212365821217</v>
+        <v>-0.1170148312162823</v>
       </c>
       <c r="F11">
-        <v>-0.01090062811071068</v>
+        <v>-0.01091004074158941</v>
       </c>
       <c r="G11">
-        <v>-14.45725541496751</v>
+        <v>6.307068428005711</v>
       </c>
       <c r="H11">
-        <v>-0.2820263236104321</v>
+        <v>-0.2820014990092023</v>
       </c>
       <c r="I11">
-        <v>-0.1905915594271094</v>
+        <v>-0.1905787202102965</v>
       </c>
       <c r="J11">
-        <v>-53.96993984320746</v>
+        <v>4.847680316044684</v>
       </c>
     </row>
   </sheetData>

--- a/table/Describe_daily.xlsx
+++ b/table/Describe_daily.xlsx
@@ -468,31 +468,31 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>5458</v>
+        <v>5402</v>
       </c>
       <c r="C2">
-        <v>5458</v>
+        <v>5402</v>
       </c>
       <c r="D2">
-        <v>5458</v>
+        <v>5402</v>
       </c>
       <c r="E2">
-        <v>5458</v>
+        <v>5402</v>
       </c>
       <c r="F2">
-        <v>5458</v>
+        <v>5402</v>
       </c>
       <c r="G2">
-        <v>5458</v>
+        <v>5402</v>
       </c>
       <c r="H2">
-        <v>5458</v>
+        <v>5402</v>
       </c>
       <c r="I2">
-        <v>5458</v>
+        <v>5402</v>
       </c>
       <c r="J2">
-        <v>5458</v>
+        <v>5402</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -500,31 +500,31 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>234.7114574073129</v>
+        <v>235.7438036386546</v>
       </c>
       <c r="C3">
-        <v>35.4329714955057</v>
+        <v>35.70071674809991</v>
       </c>
       <c r="D3">
-        <v>7347.80187746735</v>
+        <v>7353.394557146442</v>
       </c>
       <c r="E3">
-        <v>9.414752567938771e-05</v>
+        <v>6.700547217702872e-05</v>
       </c>
       <c r="F3">
-        <v>0.0003988630252576253</v>
+        <v>0.0003753271642726076</v>
       </c>
       <c r="G3">
-        <v>0.0006961462145523515</v>
+        <v>0.000670028336158703</v>
       </c>
       <c r="H3">
-        <v>2.203137914879677e-05</v>
+        <v>-4.521259900206214e-06</v>
       </c>
       <c r="I3">
-        <v>0.0001769697250818693</v>
+        <v>0.0001542761677597638</v>
       </c>
       <c r="J3">
-        <v>0.0005829143528471015</v>
+        <v>0.0005570785857415422</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -532,31 +532,31 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>120.3951507366286</v>
+        <v>120.4660119223669</v>
       </c>
       <c r="C4">
-        <v>28.65637501142295</v>
+        <v>28.67073159704843</v>
       </c>
       <c r="D4">
-        <v>1435.941994584991</v>
+        <v>1437.114882283502</v>
       </c>
       <c r="E4">
-        <v>0.01200150518165497</v>
+        <v>0.01195129282041236</v>
       </c>
       <c r="F4">
-        <v>0.02105564822233381</v>
+        <v>0.02101586403826483</v>
       </c>
       <c r="G4">
-        <v>0.0154646879749652</v>
+        <v>0.01545199749464008</v>
       </c>
       <c r="H4">
-        <v>0.01201667407011252</v>
+        <v>0.01196812572579835</v>
       </c>
       <c r="I4">
-        <v>0.02107703533964108</v>
+        <v>0.02103730605074483</v>
       </c>
       <c r="J4">
-        <v>0.01484554225747269</v>
+        <v>0.0148255020043422</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -596,31 +596,31 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>125.3171863555908</v>
+        <v>125.8775882720947</v>
       </c>
       <c r="C6">
-        <v>5.878037452697754</v>
+        <v>6.060541033744812</v>
       </c>
       <c r="D6">
-        <v>6236.72509765625</v>
+        <v>6237.714965820312</v>
       </c>
       <c r="E6">
-        <v>-0.005495166021006803</v>
+        <v>-0.005503658715193011</v>
       </c>
       <c r="F6">
         <v>-0.01053399579635431</v>
       </c>
       <c r="G6">
-        <v>-0.005660927378979996</v>
+        <v>-0.005663776925450448</v>
       </c>
       <c r="H6">
-        <v>-0.005510319998843029</v>
+        <v>-0.005518859649766132</v>
       </c>
       <c r="I6">
         <v>-0.01058987118720438</v>
       </c>
       <c r="J6">
-        <v>-0.00567701116592144</v>
+        <v>-0.005679876930004633</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -628,16 +628,16 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>234.6944885253906</v>
+        <v>237.2890167236328</v>
       </c>
       <c r="C7">
-        <v>32.03687477111816</v>
+        <v>33.20674133300781</v>
       </c>
       <c r="D7">
-        <v>7372.699951171875</v>
+        <v>7379.400146484375</v>
       </c>
       <c r="E7">
-        <v>0.0004928425969971117</v>
+        <v>0.000485141965340552</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -646,7 +646,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.0004927211896258815</v>
+        <v>0.0004850243219698516</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -660,31 +660,31 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>325.8576507568359</v>
+        <v>326.7034454345703</v>
       </c>
       <c r="C8">
-        <v>59.19004058837891</v>
+        <v>59.45259857177734</v>
       </c>
       <c r="D8">
-        <v>8554.51708984375</v>
+        <v>8569.850341796875</v>
       </c>
       <c r="E8">
-        <v>0.005995603811000449</v>
+        <v>0.005966178378664866</v>
       </c>
       <c r="F8">
-        <v>0.01117355531549502</v>
+        <v>0.01116212278338879</v>
       </c>
       <c r="G8">
-        <v>0.006589086979154446</v>
+        <v>0.006499629591487088</v>
       </c>
       <c r="H8">
-        <v>0.005977701698548159</v>
+        <v>0.00594845120867293</v>
       </c>
       <c r="I8">
-        <v>0.0111115922671181</v>
+        <v>0.01110028601805151</v>
       </c>
       <c r="J8">
-        <v>0.00656747383392314</v>
+        <v>0.006478598075406005</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -724,31 +724,31 @@
         <v>17</v>
       </c>
       <c r="B10">
-        <v>-0.8938135039883903</v>
+        <v>-0.9005600007671481</v>
       </c>
       <c r="C10">
-        <v>-0.7352380186844831</v>
+        <v>-0.7467304099233649</v>
       </c>
       <c r="D10">
-        <v>-0.8138951084925199</v>
+        <v>-0.8174906152238761</v>
       </c>
       <c r="E10">
-        <v>7.246204119602876</v>
+        <v>7.328974255355273</v>
       </c>
       <c r="F10">
-        <v>3.589584940010535</v>
+        <v>3.621173979212864</v>
       </c>
       <c r="G10">
-        <v>112.2288688842685</v>
+        <v>113.8013280747806</v>
       </c>
       <c r="H10">
-        <v>7.198028586451331</v>
+        <v>7.284111622539521</v>
       </c>
       <c r="I10">
-        <v>3.812086506201679</v>
+        <v>3.845615920587999</v>
       </c>
       <c r="J10">
-        <v>81.15853222584742</v>
+        <v>82.46815513184973</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -756,31 +756,31 @@
         <v>18</v>
       </c>
       <c r="B11">
-        <v>0.3578007480244293</v>
+        <v>0.3449529915123676</v>
       </c>
       <c r="C11">
-        <v>0.5460116398385354</v>
+        <v>0.5323688015303618</v>
       </c>
       <c r="D11">
-        <v>-0.01295974756637836</v>
+        <v>-0.01417326817176103</v>
       </c>
       <c r="E11">
-        <v>-0.1170148312162823</v>
+        <v>-0.1371429872746963</v>
       </c>
       <c r="F11">
-        <v>-0.01091004074158941</v>
+        <v>-0.008963423964556667</v>
       </c>
       <c r="G11">
-        <v>6.307068428005711</v>
+        <v>6.394187622929788</v>
       </c>
       <c r="H11">
-        <v>-0.2820014990092023</v>
+        <v>-0.3028122399242238</v>
       </c>
       <c r="I11">
-        <v>-0.1905787202102965</v>
+        <v>-0.1893274323065182</v>
       </c>
       <c r="J11">
-        <v>4.847680316044684</v>
+        <v>4.925106011755821</v>
       </c>
     </row>
   </sheetData>
